--- a/biology/Microbiologie/Milieu_Litsky/Milieu_Litsky.xlsx
+++ b/biology/Microbiologie/Milieu_Litsky/Milieu_Litsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu de Litsky est un milieu de culture servant à cultiver des micro-organismes dans un liquide en laboratoire. Il est principalement utilisé pour détecter la présence de streptocoques et d'entérocoques dans les eaux et les aliments.
 </t>
@@ -511,7 +523,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale utilisation de ce milieu nutritif est la confirmation de la présence d’Enterococcus dans des aliments (Microbiologie alimentaire) : en effet, sa composition sélectionne préférentiellement ces souches bactériennes, de manière à mettre en évidence leur contamination sur un produit donné. 
 </t>
@@ -542,7 +556,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>peptone :	  20,0 g
 glucose :      5,0 g
@@ -579,7 +595,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dosage de produit dans l'eau est de 35,7 g par litre. Il se neutralise par un simple autoclavage classique. 
 </t>
@@ -610,7 +628,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce milieu permet l'enrichissement en Entérocoques d'un inoculum de produit alimentaire. Un trouble dans le liquide signale la présence éventuelle de ces bactéries qu'il faudra ensuite confirmer par le test de Litsky, l'isolement et l'identification des colonies.
 Il sert aussi au dénombrement des Streptocoques fécaux. C'est un test confirmatif qui se fait à la suite du test présomptif au milieu de Rothe.
